--- a/VersionRecords/Version 3.3.1/版本Bug和特性计划及评审表v3.2.1_磐石组.xlsx
+++ b/VersionRecords/Version 3.3.1/版本Bug和特性计划及评审表v3.2.1_磐石组.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mogoDoc\Mogo_Doc\VersionRecords\Version 3.2.1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mogoDoc\Mogo_Doc\VersionRecords\Version 3.3.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="49">
   <si>
     <t>No</t>
   </si>
@@ -135,7 +135,38 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>王向阳</t>
+    <t>通过</t>
+  </si>
+  <si>
+    <t>BS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>拓展首页百分比位数调整</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>张浩</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>蘑菇宝贷款合同增加查询</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加删除房型（集中式）、删除房源功能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>租客列表对租客身份证号显示进行屏蔽，仅显示后六位，增加手机号等搜索条件</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册用户明细城市筛选查询</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -143,18 +174,31 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>通过</t>
+    <t>预约单统计每个预约单渠道来源统计</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>自营房屋管家增加字段和查询</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>拓展日报</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东解约</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>400电话渠道、次数统计</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信菜单导入功能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>通过</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BS</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>能</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -828,10 +872,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T218"/>
+  <dimension ref="A1:T216"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2:N6"/>
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -849,7 +893,7 @@
     <col min="11" max="11" width="11.875" style="19" customWidth="1"/>
     <col min="12" max="12" width="11.375" style="19" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10" style="20" customWidth="1"/>
-    <col min="14" max="14" width="10" style="20" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.375" style="20" customWidth="1"/>
     <col min="15" max="15" width="7.75" style="20" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12" style="23" customWidth="1"/>
     <col min="17" max="17" width="17" style="23" bestFit="1" customWidth="1"/>
@@ -920,26 +964,32 @@
     </row>
     <row r="2" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A2" s="21">
-        <v>1</v>
-      </c>
-      <c r="B2" s="30"/>
+        <v>2</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>38</v>
+      </c>
       <c r="C2" s="12" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="13"/>
+      <c r="F2" s="13">
+        <v>42543</v>
+      </c>
       <c r="G2" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="13"/>
+      <c r="H2" s="13">
+        <v>42543</v>
+      </c>
       <c r="I2" s="12"/>
       <c r="J2" s="14" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K2" s="12" t="s">
         <v>28</v>
@@ -948,11 +998,13 @@
         <v>29</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="N2" s="13"/>
+        <v>32</v>
+      </c>
+      <c r="N2" s="13">
+        <v>42546</v>
+      </c>
       <c r="O2" s="14" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="P2" s="22"/>
       <c r="Q2" s="22"/>
@@ -962,26 +1014,32 @@
     </row>
     <row r="3" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A3" s="21">
-        <v>2</v>
-      </c>
-      <c r="B3" s="30"/>
+        <v>3</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>35</v>
+      </c>
       <c r="C3" s="12" t="s">
         <v>31</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="13"/>
+      <c r="F3" s="13">
+        <v>42544</v>
+      </c>
       <c r="G3" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="13"/>
+      <c r="H3" s="13">
+        <v>42544</v>
+      </c>
       <c r="I3" s="12"/>
       <c r="J3" s="14" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="K3" s="12" t="s">
         <v>28</v>
@@ -990,11 +1048,13 @@
         <v>29</v>
       </c>
       <c r="M3" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="N3" s="13">
+        <v>42546</v>
+      </c>
+      <c r="O3" s="14" t="s">
         <v>34</v>
-      </c>
-      <c r="N3" s="13"/>
-      <c r="O3" s="14" t="s">
-        <v>37</v>
       </c>
       <c r="P3" s="22"/>
       <c r="Q3" s="22"/>
@@ -1002,28 +1062,34 @@
       <c r="S3" s="18"/>
       <c r="T3" s="10"/>
     </row>
-    <row r="4" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.35">
       <c r="A4" s="21">
-        <v>3</v>
-      </c>
-      <c r="B4" s="30"/>
+        <v>5</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>39</v>
+      </c>
       <c r="C4" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="13"/>
+      <c r="F4" s="13">
+        <v>42544</v>
+      </c>
       <c r="G4" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="13"/>
+      <c r="H4" s="13">
+        <v>42544</v>
+      </c>
       <c r="I4" s="12"/>
       <c r="J4" s="14" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="K4" s="12" t="s">
         <v>28</v>
@@ -1032,11 +1098,13 @@
         <v>29</v>
       </c>
       <c r="M4" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="N4" s="13">
+        <v>42546</v>
+      </c>
+      <c r="O4" s="14" t="s">
         <v>34</v>
-      </c>
-      <c r="N4" s="13"/>
-      <c r="O4" s="14" t="s">
-        <v>37</v>
       </c>
       <c r="P4" s="22"/>
       <c r="Q4" s="22"/>
@@ -1046,26 +1114,32 @@
     </row>
     <row r="5" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A5" s="21">
-        <v>4</v>
-      </c>
-      <c r="B5" s="30"/>
+        <v>6</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>40</v>
+      </c>
       <c r="C5" s="12" t="s">
         <v>30</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="13"/>
+      <c r="F5" s="13">
+        <v>42544</v>
+      </c>
       <c r="G5" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="13"/>
+      <c r="H5" s="13">
+        <v>42544</v>
+      </c>
       <c r="I5" s="12"/>
       <c r="J5" s="14" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="K5" s="12" t="s">
         <v>28</v>
@@ -1074,12 +1148,12 @@
         <v>29</v>
       </c>
       <c r="M5" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="N5" s="13"/>
-      <c r="O5" s="14" t="s">
-        <v>37</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="N5" s="13">
+        <v>42552</v>
+      </c>
+      <c r="O5" s="14"/>
       <c r="P5" s="22"/>
       <c r="Q5" s="22"/>
       <c r="R5" s="22"/>
@@ -1088,26 +1162,32 @@
     </row>
     <row r="6" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A6" s="21">
-        <v>5</v>
-      </c>
-      <c r="B6" s="30"/>
+        <v>7</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>42</v>
+      </c>
       <c r="C6" s="12" t="s">
         <v>30</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="13"/>
+      <c r="F6" s="13">
+        <v>42545</v>
+      </c>
       <c r="G6" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="13"/>
+      <c r="H6" s="13">
+        <v>42545</v>
+      </c>
       <c r="I6" s="12"/>
       <c r="J6" s="14" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="K6" s="12" t="s">
         <v>28</v>
@@ -1116,12 +1196,12 @@
         <v>29</v>
       </c>
       <c r="M6" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="N6" s="13"/>
-      <c r="O6" s="14" t="s">
-        <v>37</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="N6" s="13">
+        <v>42552</v>
+      </c>
+      <c r="O6" s="14"/>
       <c r="P6" s="22"/>
       <c r="Q6" s="22"/>
       <c r="R6" s="22"/>
@@ -1130,31 +1210,45 @@
     </row>
     <row r="7" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A7" s="21">
-        <v>6</v>
-      </c>
-      <c r="B7" s="30"/>
+        <v>8</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>43</v>
+      </c>
       <c r="C7" s="12" t="s">
         <v>30</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="13"/>
+      <c r="F7" s="13">
+        <v>42545</v>
+      </c>
       <c r="G7" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="13"/>
+      <c r="H7" s="13">
+        <v>42545</v>
+      </c>
       <c r="I7" s="12"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="12"/>
+      <c r="J7" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>28</v>
+      </c>
       <c r="L7" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="M7" s="14"/>
-      <c r="N7" s="13"/>
+      <c r="M7" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="N7" s="13">
+        <v>42552</v>
+      </c>
       <c r="O7" s="14"/>
       <c r="P7" s="22"/>
       <c r="Q7" s="22"/>
@@ -1164,21 +1258,45 @@
     </row>
     <row r="8" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A8" s="21">
-        <v>7</v>
-      </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
+        <v>9</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="13">
+        <v>42545</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="13">
+        <v>42545</v>
+      </c>
       <c r="I8" s="12"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="13"/>
+      <c r="J8" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="N8" s="13">
+        <v>42553</v>
+      </c>
       <c r="O8" s="14"/>
       <c r="P8" s="22"/>
       <c r="Q8" s="22"/>
@@ -1188,19 +1306,39 @@
     </row>
     <row r="9" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A9" s="21">
-        <v>8</v>
-      </c>
-      <c r="B9" s="30"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
+        <v>10</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="13">
+        <v>42548</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="13">
+        <v>42548</v>
+      </c>
       <c r="I9" s="12"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
+      <c r="J9" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>29</v>
+      </c>
       <c r="M9" s="14"/>
       <c r="N9" s="13"/>
       <c r="O9" s="14"/>
@@ -1212,19 +1350,39 @@
     </row>
     <row r="10" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A10" s="21">
-        <v>9</v>
-      </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
+        <v>11</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="13">
+        <v>42550</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="13">
+        <v>42550</v>
+      </c>
       <c r="I10" s="12"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
+      <c r="J10" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>29</v>
+      </c>
       <c r="M10" s="14"/>
       <c r="N10" s="13"/>
       <c r="O10" s="14"/>
@@ -1236,21 +1394,45 @@
     </row>
     <row r="11" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A11" s="21">
-        <v>10</v>
-      </c>
-      <c r="B11" s="30"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
+        <v>12</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="13">
+        <v>42551</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="13">
+        <v>42551</v>
+      </c>
       <c r="I11" s="12"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="13"/>
+      <c r="J11" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L11" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="M11" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="N11" s="13">
+        <v>42553</v>
+      </c>
       <c r="O11" s="14"/>
       <c r="P11" s="22"/>
       <c r="Q11" s="22"/>
@@ -1260,19 +1442,39 @@
     </row>
     <row r="12" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A12" s="21">
-        <v>11</v>
-      </c>
-      <c r="B12" s="30"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
+        <v>13</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="13">
+        <v>42551</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="13">
+        <v>42551</v>
+      </c>
       <c r="I12" s="12"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
+      <c r="J12" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L12" s="12" t="s">
+        <v>29</v>
+      </c>
       <c r="M12" s="14"/>
       <c r="N12" s="13"/>
       <c r="O12" s="14"/>
@@ -1283,9 +1485,7 @@
       <c r="T12" s="10"/>
     </row>
     <row r="13" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="21">
-        <v>12</v>
-      </c>
+      <c r="A13" s="21"/>
       <c r="B13" s="30"/>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
@@ -1307,9 +1507,7 @@
       <c r="T13" s="10"/>
     </row>
     <row r="14" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="21">
-        <v>13</v>
-      </c>
+      <c r="A14" s="21"/>
       <c r="B14" s="30"/>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
@@ -1346,15 +1544,15 @@
       <c r="M15" s="14"/>
       <c r="N15" s="13"/>
       <c r="O15" s="14"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="22"/>
-      <c r="R15" s="22"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
       <c r="S15" s="18"/>
       <c r="T15" s="10"/>
     </row>
     <row r="16" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A16" s="21"/>
-      <c r="B16" s="30"/>
+      <c r="B16" s="31"/>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
@@ -1368,15 +1566,15 @@
       <c r="M16" s="14"/>
       <c r="N16" s="13"/>
       <c r="O16" s="14"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="22"/>
-      <c r="R16" s="22"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
       <c r="S16" s="18"/>
       <c r="T16" s="10"/>
     </row>
     <row r="17" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A17" s="21"/>
-      <c r="B17" s="30"/>
+      <c r="B17" s="31"/>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
@@ -1396,9 +1594,9 @@
       <c r="S17" s="18"/>
       <c r="T17" s="10"/>
     </row>
-    <row r="18" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A18" s="21"/>
-      <c r="B18" s="31"/>
+      <c r="B18" s="8"/>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
@@ -1418,9 +1616,9 @@
       <c r="S18" s="18"/>
       <c r="T18" s="10"/>
     </row>
-    <row r="19" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A19" s="21"/>
-      <c r="B19" s="31"/>
+      <c r="B19" s="8"/>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
@@ -1645,7 +1843,7 @@
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
       <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
+      <c r="G29" s="12"/>
       <c r="H29" s="13"/>
       <c r="I29" s="12"/>
       <c r="J29" s="14"/>
@@ -1667,7 +1865,7 @@
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
       <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
+      <c r="G30" s="12"/>
       <c r="H30" s="13"/>
       <c r="I30" s="12"/>
       <c r="J30" s="14"/>
@@ -1711,7 +1909,7 @@
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
       <c r="F32" s="13"/>
-      <c r="G32" s="12"/>
+      <c r="G32" s="13"/>
       <c r="H32" s="13"/>
       <c r="I32" s="12"/>
       <c r="J32" s="14"/>
@@ -1733,7 +1931,7 @@
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
       <c r="F33" s="13"/>
-      <c r="G33" s="12"/>
+      <c r="G33" s="13"/>
       <c r="H33" s="13"/>
       <c r="I33" s="12"/>
       <c r="J33" s="14"/>
@@ -2299,92 +2497,90 @@
       <c r="T58" s="10"/>
     </row>
     <row r="59" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A59" s="21"/>
-      <c r="B59" s="8"/>
-      <c r="C59" s="12"/>
+      <c r="A59" s="9"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="9"/>
       <c r="D59" s="12"/>
       <c r="E59" s="12"/>
-      <c r="F59" s="13"/>
-      <c r="G59" s="13"/>
-      <c r="H59" s="13"/>
-      <c r="I59" s="12"/>
-      <c r="J59" s="14"/>
-      <c r="K59" s="12"/>
-      <c r="L59" s="12"/>
-      <c r="M59" s="14"/>
-      <c r="N59" s="13"/>
-      <c r="O59" s="14"/>
+      <c r="F59" s="16"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="16"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c r="L59" s="9"/>
+      <c r="M59" s="9"/>
+      <c r="N59" s="16"/>
+      <c r="O59" s="17"/>
       <c r="P59" s="7"/>
       <c r="Q59" s="7"/>
       <c r="R59" s="7"/>
-      <c r="S59" s="18"/>
+      <c r="S59" s="17"/>
       <c r="T59" s="10"/>
     </row>
     <row r="60" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A60" s="21"/>
-      <c r="B60" s="8"/>
-      <c r="C60" s="12"/>
+      <c r="A60" s="9"/>
+      <c r="B60" s="17"/>
+      <c r="C60" s="9"/>
       <c r="D60" s="12"/>
       <c r="E60" s="12"/>
-      <c r="F60" s="13"/>
-      <c r="G60" s="13"/>
-      <c r="H60" s="13"/>
-      <c r="I60" s="12"/>
-      <c r="J60" s="14"/>
-      <c r="K60" s="12"/>
-      <c r="L60" s="12"/>
-      <c r="M60" s="14"/>
-      <c r="N60" s="13"/>
-      <c r="O60" s="14"/>
+      <c r="F60" s="16"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="16"/>
+      <c r="I60" s="15"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c r="L60" s="9"/>
+      <c r="M60" s="9"/>
+      <c r="N60" s="16"/>
+      <c r="O60" s="17"/>
       <c r="P60" s="7"/>
       <c r="Q60" s="7"/>
       <c r="R60" s="7"/>
-      <c r="S60" s="18"/>
+      <c r="S60" s="17"/>
       <c r="T60" s="10"/>
     </row>
-    <row r="61" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A61" s="9"/>
-      <c r="B61" s="17"/>
-      <c r="C61" s="9"/>
+    <row r="61" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A61" s="7"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="7"/>
       <c r="D61" s="12"/>
       <c r="E61" s="12"/>
-      <c r="F61" s="16"/>
-      <c r="G61" s="9"/>
-      <c r="H61" s="16"/>
-      <c r="I61" s="15"/>
-      <c r="J61" s="9"/>
-      <c r="K61" s="9"/>
-      <c r="L61" s="9"/>
-      <c r="M61" s="9"/>
-      <c r="N61" s="16"/>
-      <c r="O61" s="17"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="6"/>
+      <c r="J61" s="7"/>
+      <c r="K61" s="7"/>
+      <c r="L61" s="7"/>
+      <c r="M61" s="7"/>
+      <c r="N61" s="5"/>
+      <c r="O61" s="4"/>
       <c r="P61" s="7"/>
       <c r="Q61" s="7"/>
       <c r="R61" s="7"/>
-      <c r="S61" s="17"/>
-      <c r="T61" s="10"/>
-    </row>
-    <row r="62" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A62" s="9"/>
-      <c r="B62" s="17"/>
-      <c r="C62" s="9"/>
+      <c r="S61" s="4"/>
+    </row>
+    <row r="62" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A62" s="7"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="7"/>
       <c r="D62" s="12"/>
       <c r="E62" s="12"/>
-      <c r="F62" s="16"/>
-      <c r="G62" s="9"/>
-      <c r="H62" s="16"/>
-      <c r="I62" s="15"/>
-      <c r="J62" s="9"/>
-      <c r="K62" s="9"/>
-      <c r="L62" s="9"/>
-      <c r="M62" s="9"/>
-      <c r="N62" s="16"/>
-      <c r="O62" s="17"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="6"/>
+      <c r="J62" s="7"/>
+      <c r="K62" s="7"/>
+      <c r="L62" s="7"/>
+      <c r="M62" s="7"/>
+      <c r="N62" s="5"/>
+      <c r="O62" s="4"/>
       <c r="P62" s="7"/>
       <c r="Q62" s="7"/>
       <c r="R62" s="7"/>
-      <c r="S62" s="17"/>
-      <c r="T62" s="10"/>
+      <c r="S62" s="4"/>
     </row>
     <row r="63" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A63" s="7"/>
@@ -3504,7 +3700,7 @@
       <c r="B116" s="4"/>
       <c r="C116" s="7"/>
       <c r="D116" s="12"/>
-      <c r="E116" s="12"/>
+      <c r="E116" s="7"/>
       <c r="F116" s="5"/>
       <c r="G116" s="7"/>
       <c r="H116" s="5"/>
@@ -3525,7 +3721,7 @@
       <c r="B117" s="4"/>
       <c r="C117" s="7"/>
       <c r="D117" s="12"/>
-      <c r="E117" s="12"/>
+      <c r="E117" s="7"/>
       <c r="F117" s="5"/>
       <c r="G117" s="7"/>
       <c r="H117" s="5"/>
@@ -3625,11 +3821,11 @@
       <c r="R121" s="7"/>
       <c r="S121" s="4"/>
     </row>
-    <row r="122" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A122" s="7"/>
       <c r="B122" s="4"/>
       <c r="C122" s="7"/>
-      <c r="D122" s="12"/>
+      <c r="D122" s="7"/>
       <c r="E122" s="7"/>
       <c r="F122" s="5"/>
       <c r="G122" s="7"/>
@@ -3646,11 +3842,11 @@
       <c r="R122" s="7"/>
       <c r="S122" s="4"/>
     </row>
-    <row r="123" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A123" s="7"/>
       <c r="B123" s="4"/>
       <c r="C123" s="7"/>
-      <c r="D123" s="12"/>
+      <c r="D123" s="7"/>
       <c r="E123" s="7"/>
       <c r="F123" s="5"/>
       <c r="G123" s="7"/>
@@ -4901,9 +5097,6 @@
       <c r="M182" s="7"/>
       <c r="N182" s="5"/>
       <c r="O182" s="4"/>
-      <c r="P182" s="7"/>
-      <c r="Q182" s="7"/>
-      <c r="R182" s="7"/>
       <c r="S182" s="4"/>
     </row>
     <row r="183" spans="1:19" x14ac:dyDescent="0.15">
@@ -4922,9 +5115,6 @@
       <c r="M183" s="7"/>
       <c r="N183" s="5"/>
       <c r="O183" s="4"/>
-      <c r="P183" s="7"/>
-      <c r="Q183" s="7"/>
-      <c r="R183" s="7"/>
       <c r="S183" s="4"/>
     </row>
     <row r="184" spans="1:19" x14ac:dyDescent="0.15">
@@ -5520,42 +5710,6 @@
       <c r="N216" s="5"/>
       <c r="O216" s="4"/>
       <c r="S216" s="4"/>
-    </row>
-    <row r="217" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A217" s="7"/>
-      <c r="B217" s="4"/>
-      <c r="C217" s="7"/>
-      <c r="D217" s="7"/>
-      <c r="E217" s="7"/>
-      <c r="F217" s="5"/>
-      <c r="G217" s="7"/>
-      <c r="H217" s="5"/>
-      <c r="I217" s="6"/>
-      <c r="J217" s="7"/>
-      <c r="K217" s="7"/>
-      <c r="L217" s="7"/>
-      <c r="M217" s="7"/>
-      <c r="N217" s="5"/>
-      <c r="O217" s="4"/>
-      <c r="S217" s="4"/>
-    </row>
-    <row r="218" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A218" s="7"/>
-      <c r="B218" s="4"/>
-      <c r="C218" s="7"/>
-      <c r="D218" s="7"/>
-      <c r="E218" s="7"/>
-      <c r="F218" s="5"/>
-      <c r="G218" s="7"/>
-      <c r="H218" s="5"/>
-      <c r="I218" s="6"/>
-      <c r="J218" s="7"/>
-      <c r="K218" s="7"/>
-      <c r="L218" s="7"/>
-      <c r="M218" s="7"/>
-      <c r="N218" s="5"/>
-      <c r="O218" s="4"/>
-      <c r="S218" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
